--- a/data/random_lines_ext/config_auto.xlsx
+++ b/data/random_lines_ext/config_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731.0193787528958</v>
+        <v>495572976.8398349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08023166023166024</v>
+        <v>0.1525490196078431</v>
       </c>
       <c r="D2" t="n">
-        <v>259</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247.6266023072626</v>
+        <v>317496383.5891132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8589385474860335</v>
+        <v>0.753766461808604</v>
       </c>
       <c r="D3" t="n">
-        <v>358</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.7103807324841</v>
+        <v>347846009.9204546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7703184713375796</v>
+        <v>0.5811363636363637</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>356.2599319671533</v>
+        <v>365247076.016165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6965693430656935</v>
+        <v>0.4486008918617614</v>
       </c>
       <c r="D5" t="n">
-        <v>548</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="6">
@@ -526,77 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.597701516624</v>
+        <v>347215042.5873563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5724296675191816</v>
+        <v>0.2769080459770115</v>
       </c>
       <c r="D6" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bs_auto6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>383.5700083023256</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5548062015503876</v>
-      </c>
-      <c r="D7" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bs_auto7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>364.659941625367</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4058661186142102</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bs_auto8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>370.7374440547009</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2143717948717949</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>bs_auto9</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>544.6836887891968</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1316485443703964</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2851</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
